--- a/nmadb/480693.xlsx
+++ b/nmadb/480693.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Treatments</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Study id</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>study name</t>
-  </si>
-  <si>
-    <t>RD</t>
   </si>
   <si>
     <t>Benefit</t>
@@ -359,18 +353,34 @@
   <si>
     <t xml:space="preserve">Flytstro€m 2008 </t>
   </si>
+  <si>
+    <t>effect=RD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,302 +475,320 @@
   </borders>
   <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,438 +796,311 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="277">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1256,7 +1157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,7 +1231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1365,7 +1265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,15 +1440,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
@@ -1568,51 +1467,51 @@
     <col min="17" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
       <c r="A2" s="9">
         <v>1994</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -1633,7 +1532,10 @@
       <c r="I2" s="11">
         <v>0.51</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="11">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>5.4664723032069984E-2</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="18" t="s">
@@ -1643,15 +1545,15 @@
         <v>1</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
       <c r="A3" s="9">
         <v>1997</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -1672,7 +1574,10 @@
       <c r="I3" s="11">
         <v>0.4</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>7.8092461474385685E-2</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="21"/>
@@ -1680,15 +1585,15 @@
         <v>2</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
       <c r="A4" s="9">
         <v>1998</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1709,7 +1614,10 @@
       <c r="I4" s="11">
         <v>0.15</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11">
+        <f>(I4-H4)/(1.96^2)</f>
+        <v>4.4252394835485216E-2</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="16"/>
@@ -1717,15 +1625,15 @@
         <v>3</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -1746,7 +1654,10 @@
       <c r="I5" s="11">
         <v>0.31</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J63" si="0">(I5-H5)/(1.96^2)</f>
+        <v>0.10412328196584758</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="16"/>
@@ -1754,15 +1665,15 @@
         <v>4</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
       <c r="A6" s="9">
         <v>2007</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -1783,7 +1694,10 @@
       <c r="I6" s="11">
         <v>0.47</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1197417742607247</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="5"/>
@@ -1791,15 +1705,15 @@
         <v>5</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
       <c r="A7" s="9">
         <v>2008</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -1820,7 +1734,10 @@
       <c r="I7" s="11">
         <v>0.47</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10672636401499376</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="5"/>
@@ -1828,15 +1745,15 @@
         <v>6</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
       <c r="A8" s="9">
         <v>2008</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -1857,7 +1774,10 @@
       <c r="I8" s="11">
         <v>0.61</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12234485630987089</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="5"/>
@@ -1865,15 +1785,15 @@
         <v>7</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
       <c r="A9" s="9">
         <v>2012</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -1894,7 +1814,10 @@
       <c r="I9" s="11">
         <v>0.38</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3710953769262806E-2</v>
+      </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="19"/>
@@ -1902,15 +1825,15 @@
         <v>8</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
       <c r="A10" s="9">
         <v>2010</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1931,7 +1854,10 @@
       <c r="I10" s="11">
         <v>0.86</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413994</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="9"/>
       <c r="M10" s="19"/>
@@ -1939,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
@@ -1964,7 +1890,10 @@
       <c r="I11" s="11">
         <v>0.87</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11193252811328613</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="5"/>
@@ -1972,10 +1901,10 @@
         <v>11</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -1997,7 +1926,10 @@
       <c r="I12" s="13">
         <v>0.09</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6855476884631403E-2</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="5"/>
@@ -2005,15 +1937,15 @@
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -2034,7 +1966,10 @@
       <c r="I13" s="11">
         <v>0.27</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157852</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="5"/>
@@ -2042,15 +1977,15 @@
         <v>13</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
       <c r="A14" s="9">
         <v>2008</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -2071,7 +2006,10 @@
       <c r="I14" s="11">
         <v>0.49</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13796334860474804</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="5"/>
@@ -2079,15 +2017,15 @@
         <v>14</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
       <c r="A15" s="9">
         <v>2009</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -2108,7 +2046,10 @@
       <c r="I15" s="11">
         <v>0.54</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1249479383590171</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5"/>
@@ -2116,15 +2057,15 @@
         <v>15</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
       <c r="A16" s="9">
         <v>2006</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2145,7 +2086,10 @@
       <c r="I16" s="11">
         <v>0.65</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0695543523531865E-2</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="5"/>
@@ -2153,15 +2097,15 @@
         <v>16</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
       <c r="A17" s="9">
         <v>2008</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -2182,7 +2126,10 @@
       <c r="I17" s="11">
         <v>0.68</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8221574344023342E-2</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
@@ -2190,15 +2137,15 @@
         <v>17</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
       <c r="A18" s="9">
         <v>2010</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -2219,7 +2166,10 @@
       <c r="I18" s="11">
         <v>0.74</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0695543523531865E-2</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
@@ -2227,15 +2177,15 @@
         <v>18</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
       <c r="A19" s="9">
         <v>2008</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -2256,7 +2206,10 @@
       <c r="I19" s="11">
         <v>0.74</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="9"/>
       <c r="M19" s="5"/>
@@ -2264,10 +2217,10 @@
         <v>19</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" s="9"/>
       <c r="D20" s="2">
         <v>16</v>
@@ -2287,9 +2240,13 @@
       <c r="I20" s="13">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2473969179508558E-2</v>
+      </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="B21" s="9"/>
       <c r="D21" s="1">
         <v>16</v>
@@ -2309,13 +2266,20 @@
       <c r="I21" s="11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>7.0283215326947118E-2</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="9">
         <v>2001</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
         <v>17</v>
@@ -2335,8 +2299,12 @@
       <c r="I22" s="11">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5489379425239478E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23" s="9"/>
       <c r="D23" s="1">
         <v>17</v>
@@ -2356,13 +2324,17 @@
       <c r="I23" s="11">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="9">
         <v>2002</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
         <v>18</v>
@@ -2382,13 +2354,17 @@
       <c r="I24" s="11">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3427738442315701E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="9">
         <v>2003</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>19</v>
@@ -2408,13 +2384,17 @@
       <c r="I25" s="11">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046649E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="9">
         <v>2003</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1">
         <v>20</v>
@@ -2434,13 +2414,17 @@
       <c r="I26" s="11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2473969179508551E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="9">
         <v>2003</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
         <v>21</v>
@@ -2460,9 +2444,13 @@
       <c r="I27" s="11">
         <v>0.54</v>
       </c>
+      <c r="J27" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1649312786339036E-2</v>
+      </c>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="E28" s="9">
         <v>15</v>
       </c>
@@ -2478,13 +2466,17 @@
       <c r="I28" s="11">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9046230737192836E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="9">
         <v>2005</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>22</v>
@@ -2504,9 +2496,13 @@
       <c r="I29" s="11">
         <v>0.54</v>
       </c>
+      <c r="J29" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9046230737192843E-2</v>
+      </c>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="E30" s="9">
         <v>15</v>
       </c>
@@ -2522,13 +2518,17 @@
       <c r="I30" s="11">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046656E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="9">
         <v>2006</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1">
         <v>23</v>
@@ -2548,13 +2548,17 @@
       <c r="I31" s="11">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="11">
+        <f t="shared" si="0"/>
+        <v>9.8917117867555193E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="9">
         <v>2006</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1">
         <v>24</v>
@@ -2574,13 +2578,17 @@
       <c r="I32" s="11">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1236984589754272E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="9">
         <v>2008</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>25</v>
@@ -2600,13 +2608,17 @@
       <c r="I33" s="11">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4664723032069984E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="9">
         <v>2010</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1">
         <v>26</v>
@@ -2626,13 +2638,17 @@
       <c r="I34" s="11">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="9">
         <v>2010</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
         <v>27</v>
@@ -2652,13 +2668,17 @@
       <c r="I35" s="11">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046656E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="9">
         <v>2011</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>28</v>
@@ -2678,13 +2698,17 @@
       <c r="I36" s="11">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="11">
+        <f t="shared" si="0"/>
+        <v>5.2061640982923783E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="9">
         <v>2011</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>29</v>
@@ -2704,13 +2728,17 @@
       <c r="I37" s="11">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4664723032069963E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="9">
         <v>2012</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -2730,13 +2758,17 @@
       <c r="I38" s="11">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800938E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="9">
         <v>2004</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>31</v>
@@ -2756,8 +2788,12 @@
       <c r="I39" s="11">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6855476884631417E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="D40" s="1">
         <v>31</v>
       </c>
@@ -2776,8 +2812,12 @@
       <c r="I40" s="11">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7267805081216157E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="D41" s="2">
         <v>31</v>
       </c>
@@ -2796,14 +2836,17 @@
       <c r="I41" s="13">
         <v>0.27</v>
       </c>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7267805081216171E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="9">
         <v>2005</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
         <v>32</v>
@@ -2823,13 +2866,17 @@
       <c r="I42" s="11">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10152019991670139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="9">
         <v>2005</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1">
         <v>33</v>
@@ -2849,13 +2896,17 @@
       <c r="I43" s="11">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1236984589754272E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="9">
         <v>2007</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1">
         <v>34</v>
@@ -2875,8 +2926,12 @@
       <c r="I44" s="11">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8633902540608078E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="D45" s="1">
         <v>34</v>
       </c>
@@ -2895,8 +2950,12 @@
       <c r="I45" s="11">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8633902540608078E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="D46" s="2">
         <v>34</v>
       </c>
@@ -2915,13 +2974,17 @@
       <c r="I46" s="13">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046649E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="9">
         <v>2010</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1">
         <v>35</v>
@@ -2941,13 +3004,17 @@
       <c r="I47" s="11">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824239E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="9">
         <v>2012</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <v>36</v>
@@ -2967,13 +3034,17 @@
       <c r="I48" s="11">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="11">
+        <f t="shared" si="0"/>
+        <v>4.945855893377761E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="9">
         <v>2011</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1">
         <v>37</v>
@@ -2993,13 +3064,17 @@
       <c r="I49" s="11">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046656E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="9">
         <v>2008</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1">
         <v>38</v>
@@ -3019,8 +3094,12 @@
       <c r="I50" s="11">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1236984589754272E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="D51" s="1">
         <v>38</v>
       </c>
@@ -3039,8 +3118,12 @@
       <c r="I51" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1236984589754272E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="D52" s="2">
         <v>38</v>
       </c>
@@ -3059,14 +3142,17 @@
       <c r="I52" s="13">
         <v>0.08</v>
       </c>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4252394835485216E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="9">
         <v>2008</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1">
         <v>39</v>
@@ -3086,8 +3172,12 @@
       <c r="I53" s="11">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3427738442315695E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="D54" s="1">
         <v>39</v>
       </c>
@@ -3106,8 +3196,12 @@
       <c r="I54" s="11">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6030820491461916E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="D55" s="1">
         <v>39</v>
       </c>
@@ -3126,13 +3220,17 @@
       <c r="I55" s="13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1236984589754272E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="9">
         <v>2009</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1">
         <v>40</v>
@@ -3152,13 +3250,17 @@
       <c r="I56" s="11">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="11">
+        <f t="shared" si="0"/>
+        <v>7.2886297376093298E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="9">
         <v>2010</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1">
         <v>41</v>
@@ -3178,8 +3280,12 @@
       <c r="I57" s="11">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6443148688046649E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="D58" s="1">
         <v>41</v>
       </c>
@@ -3198,8 +3304,12 @@
       <c r="I58" s="11">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1649312786339029E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="D59" s="2">
         <v>41</v>
       </c>
@@ -3218,13 +3328,17 @@
       <c r="I59" s="13">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1649312786339029E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="9">
         <v>2011</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1">
         <v>42</v>
@@ -3244,13 +3358,17 @@
       <c r="I60" s="11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="9">
         <v>2012</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1">
         <v>43</v>
@@ -3270,8 +3388,12 @@
       <c r="I61" s="11">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5489379425239506E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="D62" s="1">
         <v>43</v>
       </c>
@@ -3290,8 +3412,12 @@
       <c r="I62" s="11">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5489379425239506E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="D63" s="1">
         <v>43</v>
       </c>
@@ -3310,25 +3436,29 @@
       <c r="I63" s="13">
         <v>0.25</v>
       </c>
+      <c r="J63" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824253E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I63">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$E1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$E1=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$E1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F1=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F1=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3344,12 +3474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3361,12 +3491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
